--- a/biology/Zoologie/Eudromaeosauria/Eudromaeosauria.xlsx
+++ b/biology/Zoologie/Eudromaeosauria/Eudromaeosauria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eudromaeosauriens
 Eudromaeosauria (les eudromaeosauriens en français) est un clade fossile de dinosaures de la famille des Dromaeosauridae.
@@ -512,11 +524,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce clade regroupe selon ses inventeurs en 2009 les sous-familles des Dromaeosaurinae, des Saurornitholestinae et des Velociraptorinae[1].
-En 2012, P. Senter et al. considèrent qu'il n'abrite que les Dromaeosaurinae et les Velociraptorinae[2].
-Ci-dessous, les résultats de la phylogénie des Eudromaeosauria basés d'après l'analyse phylogénétique menée par James G. Napoli et son équipe en 2021[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce clade regroupe selon ses inventeurs en 2009 les sous-familles des Dromaeosaurinae, des Saurornitholestinae et des Velociraptorinae.
+En 2012, P. Senter et al. considèrent qu'il n'abrite que les Dromaeosaurinae et les Velociraptorinae.
+Ci-dessous, les résultats de la phylogénie des Eudromaeosauria basés d'après l'analyse phylogénétique menée par James G. Napoli et son équipe en 2021 :
 </t>
         </is>
       </c>
